--- a/Product ID.xlsx
+++ b/Product ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9209EF82-1467-401E-B061-7DFAB924A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1BE70-AE50-4D0E-96EE-1B417F5C654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Item Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +45,18 @@
     <t>Product ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PARA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -89,8 +96,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,23 +437,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D71963-1382-4413-8ABC-6C9112CC8BB4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8801260607365</v>
       </c>
     </row>
   </sheetData>

--- a/Product ID.xlsx
+++ b/Product ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1BE70-AE50-4D0E-96EE-1B417F5C654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52D30D7-F5DA-4F02-90C6-A9159357AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -96,11 +96,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,13 +443,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -461,7 +464,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>8801260607365</v>
       </c>
     </row>
